--- a/report_template/stylingReport.xlsx
+++ b/report_template/stylingReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>優</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,22 @@
   </si>
   <si>
     <t>不均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶編碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工廠代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顏色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,25 +478,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.125" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="5.625" customWidth="1"/>
-    <col min="6" max="6" width="5.125" customWidth="1"/>
-    <col min="7" max="7" width="4.75" customWidth="1"/>
-    <col min="8" max="9" width="5.375" customWidth="1"/>
-    <col min="10" max="10" width="6.25" customWidth="1"/>
+    <col min="3" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="7.875" customWidth="1"/>
+    <col min="8" max="8" width="7.25" customWidth="1"/>
+    <col min="9" max="9" width="5.625" customWidth="1"/>
+    <col min="10" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="4.75" customWidth="1"/>
+    <col min="12" max="13" width="5.375" customWidth="1"/>
+    <col min="14" max="14" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -491,9 +509,13 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -501,7 +523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -515,24 +537,36 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report_template/stylingReport.xlsx
+++ b/report_template/stylingReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\tights\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7144376B-EEE9-4571-91D4-A688DCF3658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -42,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>結束:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,13 +84,17 @@
   </si>
   <si>
     <t>尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定型日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -477,20 +478,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="7.875" customWidth="1"/>
-    <col min="8" max="8" width="7.25" customWidth="1"/>
+    <col min="1" max="8" width="12.625" customWidth="1"/>
     <col min="9" max="9" width="5.625" customWidth="1"/>
     <col min="10" max="10" width="5.125" customWidth="1"/>
     <col min="11" max="11" width="4.75" customWidth="1"/>
@@ -500,7 +497,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -517,36 +514,36 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>0</v>
@@ -561,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
